--- a/正文含有身份证的表格.xlsx
+++ b/正文含有身份证的表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="28800" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="98">
   <si>
     <t>姓名</t>
   </si>
@@ -46,7 +46,7 @@
     <t>男</t>
   </si>
   <si>
-    <t>140404199903030121</t>
+    <t>350802198406213085</t>
   </si>
   <si>
     <t>李四</t>
@@ -55,13 +55,274 @@
     <t>女</t>
   </si>
   <si>
-    <t>311001197103040913</t>
+    <t>510922196502245521</t>
   </si>
   <si>
     <t>王五</t>
   </si>
   <si>
-    <t>211211198805011183</t>
+    <t>360424198804291095</t>
+  </si>
+  <si>
+    <t>230603198404094308</t>
+  </si>
+  <si>
+    <t>21091119900629706X</t>
+  </si>
+  <si>
+    <t>542133197204169484</t>
+  </si>
+  <si>
+    <t>410926196804034000</t>
+  </si>
+  <si>
+    <t>522327198601287235</t>
+  </si>
+  <si>
+    <t>230100196802234657</t>
+  </si>
+  <si>
+    <t>420624198507220992</t>
+  </si>
+  <si>
+    <t>371402196107071674</t>
+  </si>
+  <si>
+    <t>350103197502069849</t>
+  </si>
+  <si>
+    <t>211021198104226695</t>
+  </si>
+  <si>
+    <t>371000198809052683</t>
+  </si>
+  <si>
+    <t>14118219900522789X</t>
+  </si>
+  <si>
+    <t>130824198805210700</t>
+  </si>
+  <si>
+    <t>500109197408065215</t>
+  </si>
+  <si>
+    <t>420602197412275613</t>
+  </si>
+  <si>
+    <t>330522196707058388</t>
+  </si>
+  <si>
+    <t>630104199008232447</t>
+  </si>
+  <si>
+    <t>62060119880712636X</t>
+  </si>
+  <si>
+    <t>330601198406215469</t>
+  </si>
+  <si>
+    <t>420982196511188500</t>
+  </si>
+  <si>
+    <t>530402196410128476</t>
+  </si>
+  <si>
+    <t>451023198312049440</t>
+  </si>
+  <si>
+    <t>61090219881006309X</t>
+  </si>
+  <si>
+    <t>532322196709230901</t>
+  </si>
+  <si>
+    <t>510681197109067181</t>
+  </si>
+  <si>
+    <t>320505197703271188</t>
+  </si>
+  <si>
+    <t>120107197512193635</t>
+  </si>
+  <si>
+    <t>540101196112229198</t>
+  </si>
+  <si>
+    <t>510904198611273923</t>
+  </si>
+  <si>
+    <t>654025196107319425</t>
+  </si>
+  <si>
+    <t>421200198404142862</t>
+  </si>
+  <si>
+    <t>421002198304291184</t>
+  </si>
+  <si>
+    <t>610114199001040230</t>
+  </si>
+  <si>
+    <t>450800198601231757</t>
+  </si>
+  <si>
+    <t>141030198101297437</t>
+  </si>
+  <si>
+    <t>320921197101309603</t>
+  </si>
+  <si>
+    <t>469027196501309024</t>
+  </si>
+  <si>
+    <t>230521198304012122</t>
+  </si>
+  <si>
+    <t>341101198804194451</t>
+  </si>
+  <si>
+    <t>430621198401128154</t>
+  </si>
+  <si>
+    <t>150201196712159405</t>
+  </si>
+  <si>
+    <t>50010919740917806X</t>
+  </si>
+  <si>
+    <t>嵇顺达</t>
+  </si>
+  <si>
+    <t>愈彦辉</t>
+  </si>
+  <si>
+    <t>绪镇国</t>
+  </si>
+  <si>
+    <t>智千亦</t>
+  </si>
+  <si>
+    <t>库家仪</t>
+  </si>
+  <si>
+    <t>巢贤洋</t>
+  </si>
+  <si>
+    <t>翟朋</t>
+  </si>
+  <si>
+    <t>辟雪卉</t>
+  </si>
+  <si>
+    <t>司空晓蓉</t>
+  </si>
+  <si>
+    <t>税琦森</t>
+  </si>
+  <si>
+    <t>明大赢</t>
+  </si>
+  <si>
+    <t>侍海贤</t>
+  </si>
+  <si>
+    <t>谭爽琳</t>
+  </si>
+  <si>
+    <t>守振华</t>
+  </si>
+  <si>
+    <t>祖启</t>
+  </si>
+  <si>
+    <t>沈君</t>
+  </si>
+  <si>
+    <t>麴成学</t>
+  </si>
+  <si>
+    <t>洛驿镐</t>
+  </si>
+  <si>
+    <t>夙昕燕</t>
+  </si>
+  <si>
+    <t>章佳梅</t>
+  </si>
+  <si>
+    <t>线言欣</t>
+  </si>
+  <si>
+    <t>示绍丽</t>
+  </si>
+  <si>
+    <t>睦晓乐</t>
+  </si>
+  <si>
+    <t>莘瑶霖</t>
+  </si>
+  <si>
+    <t>孝艳楠</t>
+  </si>
+  <si>
+    <t>昝骑琥</t>
+  </si>
+  <si>
+    <t>於广斌</t>
+  </si>
+  <si>
+    <t>赛辰淋</t>
+  </si>
+  <si>
+    <t>范森</t>
+  </si>
+  <si>
+    <t>冼琦琥</t>
+  </si>
+  <si>
+    <t>辟柯朱</t>
+  </si>
+  <si>
+    <t>南门小梅</t>
+  </si>
+  <si>
+    <t>完冰巧</t>
+  </si>
+  <si>
+    <t>代博宏</t>
+  </si>
+  <si>
+    <t>官儒岚</t>
+  </si>
+  <si>
+    <t>亓玉二</t>
+  </si>
+  <si>
+    <t>香修杰</t>
+  </si>
+  <si>
+    <t>养璋</t>
+  </si>
+  <si>
+    <t>蔡贝儿</t>
+  </si>
+  <si>
+    <t>陶辰</t>
+  </si>
+  <si>
+    <t>位高飞</t>
+  </si>
+  <si>
+    <t>闾恒宏</t>
+  </si>
+  <si>
+    <t>堂宏韩</t>
+  </si>
+  <si>
+    <t>方伟成</t>
+  </si>
+  <si>
+    <t>耿涛鸣</t>
   </si>
 </sst>
 </file>
@@ -74,13 +335,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF666666"/>
+      <name val="Noto Sans SC"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -421,12 +688,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF0F0F0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF0F0F0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF0F0F0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF0F0F0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,139 +829,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -995,13 +1283,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="20.8181818181818" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1021,7 +1312,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1032,7 +1323,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1043,7 +1334,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1054,8 +1345,8 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1065,8 +1356,8 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1076,8 +1367,8 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1087,8 +1378,8 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1098,8 +1389,8 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1109,8 +1400,8 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1120,8 +1411,8 @@
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1131,8 +1422,8 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1142,8 +1433,8 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1153,8 +1444,8 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1164,8 +1455,8 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1175,8 +1466,8 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1186,8 +1477,8 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1197,8 +1488,8 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1208,8 +1499,8 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1219,8 +1510,8 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1230,8 +1521,8 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1241,8 +1532,8 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1252,8 +1543,8 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1263,8 +1554,8 @@
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1274,8 +1565,8 @@
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1285,8 +1576,8 @@
       <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1296,8 +1587,8 @@
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1307,8 +1598,8 @@
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1318,8 +1609,8 @@
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1329,8 +1620,8 @@
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
+      <c r="C30" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1340,8 +1631,8 @@
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1351,8 +1642,8 @@
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
+      <c r="C32" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1362,8 +1653,8 @@
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
+      <c r="C33" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1373,8 +1664,8 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>10</v>
+      <c r="C34" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1384,8 +1675,8 @@
       <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>5</v>
+      <c r="C35" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1395,8 +1686,8 @@
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1406,8 +1697,8 @@
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>10</v>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1417,8 +1708,8 @@
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>5</v>
+      <c r="C38" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1428,8 +1719,8 @@
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
+      <c r="C39" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1439,8 +1730,8 @@
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>10</v>
+      <c r="C40" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1450,8 +1741,8 @@
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>5</v>
+      <c r="C41" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1461,8 +1752,8 @@
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
+      <c r="C42" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1472,8 +1763,8 @@
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>10</v>
+      <c r="C43" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1483,8 +1774,8 @@
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>5</v>
+      <c r="C44" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1494,8 +1785,8 @@
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
+      <c r="C45" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1505,8 +1796,8 @@
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>10</v>
+      <c r="C46" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1516,7 +1807,7 @@
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1527,7 +1818,7 @@
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1538,7 +1829,7 @@
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1549,8 +1840,8 @@
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>5</v>
+      <c r="C50" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1560,8 +1851,8 @@
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
+      <c r="C51" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1571,8 +1862,8 @@
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>10</v>
+      <c r="C52" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1582,8 +1873,8 @@
       <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>5</v>
+      <c r="C53" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1593,8 +1884,8 @@
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>8</v>
+      <c r="C54" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1604,8 +1895,8 @@
       <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>10</v>
+      <c r="C55" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1615,8 +1906,8 @@
       <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>5</v>
+      <c r="C56" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1626,8 +1917,8 @@
       <c r="B57" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>8</v>
+      <c r="C57" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1637,8 +1928,8 @@
       <c r="B58" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>10</v>
+      <c r="C58" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1648,8 +1939,8 @@
       <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>5</v>
+      <c r="C59" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1659,8 +1950,8 @@
       <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>8</v>
+      <c r="C60" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1670,8 +1961,8 @@
       <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>10</v>
+      <c r="C61" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1681,8 +1972,8 @@
       <c r="B62" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>5</v>
+      <c r="C62" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1692,8 +1983,8 @@
       <c r="B63" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>8</v>
+      <c r="C63" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1703,8 +1994,8 @@
       <c r="B64" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>10</v>
+      <c r="C64" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1714,8 +2005,8 @@
       <c r="B65" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>5</v>
+      <c r="C65" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1725,8 +2016,8 @@
       <c r="B66" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>8</v>
+      <c r="C66" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1736,8 +2027,8 @@
       <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>10</v>
+      <c r="C67" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1747,8 +2038,8 @@
       <c r="B68" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>5</v>
+      <c r="C68" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1758,8 +2049,8 @@
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>8</v>
+      <c r="C69" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1769,8 +2060,8 @@
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>10</v>
+      <c r="C70" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1780,8 +2071,8 @@
       <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>5</v>
+      <c r="C71" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1791,8 +2082,8 @@
       <c r="B72" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>8</v>
+      <c r="C72" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1802,8 +2093,8 @@
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>10</v>
+      <c r="C73" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1813,8 +2104,8 @@
       <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>5</v>
+      <c r="C74" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1824,8 +2115,8 @@
       <c r="B75" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>8</v>
+      <c r="C75" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1835,8 +2126,8 @@
       <c r="B76" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>10</v>
+      <c r="C76" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1846,8 +2137,8 @@
       <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>5</v>
+      <c r="C77" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1857,8 +2148,8 @@
       <c r="B78" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>8</v>
+      <c r="C78" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1868,8 +2159,8 @@
       <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>10</v>
+      <c r="C79" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1879,8 +2170,8 @@
       <c r="B80" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>5</v>
+      <c r="C80" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1890,8 +2181,8 @@
       <c r="B81" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>8</v>
+      <c r="C81" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1901,8 +2192,8 @@
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>10</v>
+      <c r="C82" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1912,8 +2203,8 @@
       <c r="B83" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>5</v>
+      <c r="C83" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1923,8 +2214,8 @@
       <c r="B84" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>8</v>
+      <c r="C84" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1934,8 +2225,8 @@
       <c r="B85" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>10</v>
+      <c r="C85" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1945,8 +2236,8 @@
       <c r="B86" t="s">
         <v>4</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>5</v>
+      <c r="C86" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1956,8 +2247,8 @@
       <c r="B87" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>8</v>
+      <c r="C87" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1967,8 +2258,8 @@
       <c r="B88" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>10</v>
+      <c r="C88" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1978,8 +2269,8 @@
       <c r="B89" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>5</v>
+      <c r="C89" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1989,8 +2280,8 @@
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>8</v>
+      <c r="C90" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2000,8 +2291,8 @@
       <c r="B91" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>10</v>
+      <c r="C91" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2011,7 +2302,7 @@
       <c r="B92" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2022,7 +2313,7 @@
       <c r="B93" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2033,7 +2324,7 @@
       <c r="B94" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2044,8 +2335,8 @@
       <c r="B95" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>5</v>
+      <c r="C95" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2055,8 +2346,8 @@
       <c r="B96" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>8</v>
+      <c r="C96" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2066,8 +2357,8 @@
       <c r="B97" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>10</v>
+      <c r="C97" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2077,8 +2368,8 @@
       <c r="B98" t="s">
         <v>4</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>5</v>
+      <c r="C98" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2088,8 +2379,8 @@
       <c r="B99" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>8</v>
+      <c r="C99" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2099,8 +2390,8 @@
       <c r="B100" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>10</v>
+      <c r="C100" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2110,8 +2401,8 @@
       <c r="B101" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>5</v>
+      <c r="C101" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2121,8 +2412,8 @@
       <c r="B102" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>8</v>
+      <c r="C102" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2132,8 +2423,8 @@
       <c r="B103" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>10</v>
+      <c r="C103" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2143,8 +2434,8 @@
       <c r="B104" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>5</v>
+      <c r="C104" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2154,8 +2445,8 @@
       <c r="B105" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>8</v>
+      <c r="C105" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2165,8 +2456,8 @@
       <c r="B106" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>10</v>
+      <c r="C106" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2176,8 +2467,8 @@
       <c r="B107" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>5</v>
+      <c r="C107" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2187,8 +2478,8 @@
       <c r="B108" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>8</v>
+      <c r="C108" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2198,8 +2489,8 @@
       <c r="B109" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>10</v>
+      <c r="C109" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2209,8 +2500,8 @@
       <c r="B110" t="s">
         <v>4</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>5</v>
+      <c r="C110" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2220,8 +2511,8 @@
       <c r="B111" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>8</v>
+      <c r="C111" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2231,8 +2522,8 @@
       <c r="B112" t="s">
         <v>4</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>10</v>
+      <c r="C112" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2242,8 +2533,8 @@
       <c r="B113" t="s">
         <v>4</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>5</v>
+      <c r="C113" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2253,8 +2544,8 @@
       <c r="B114" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>8</v>
+      <c r="C114" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2264,8 +2555,8 @@
       <c r="B115" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>10</v>
+      <c r="C115" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2275,8 +2566,8 @@
       <c r="B116" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>5</v>
+      <c r="C116" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2286,8 +2577,8 @@
       <c r="B117" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>8</v>
+      <c r="C117" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2297,8 +2588,8 @@
       <c r="B118" t="s">
         <v>4</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>10</v>
+      <c r="C118" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2308,8 +2599,8 @@
       <c r="B119" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>5</v>
+      <c r="C119" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2319,8 +2610,8 @@
       <c r="B120" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>8</v>
+      <c r="C120" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2330,9 +2621,54 @@
       <c r="B121" t="s">
         <v>4</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C121" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2344,14 +2680,381 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="43.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="17.75" spans="1:1">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" ht="17.75" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="17.75" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="17.75" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="17.75" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="17.75" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="17.75" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="17.75" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="17.75" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="17.75" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="17.75" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="17.75" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="17.75" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="17.75" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="17.75" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="17.75" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="17.75" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="17.75" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" ht="17.75" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="17.75" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="17.75" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" ht="17.75" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" ht="17.75" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" ht="17.75" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="17.75" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" ht="17.75" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" ht="17.75" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" ht="17.75" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="17.75" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" ht="17.75" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" ht="17.75" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" ht="17.75" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" ht="17.75" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" ht="17.75" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" ht="17.75" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" ht="17.75" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" ht="17.75" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" ht="17.75" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" ht="17.75" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" ht="17.75" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" ht="17.75" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" ht="17.75" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" ht="17.75" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" ht="17.75" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" ht="17.75" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" ht="17.75" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
